--- a/current/Project 4/RAWDOCKET_06042021_140401.xlsx
+++ b/current/Project 4/RAWDOCKET_06042021_140401.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SVR2012R2-1\Shares\02 Saved Report Output\MaxExtract\RAWDOCKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svr2012r2-1\users\Desktops\ctsstaff\Desktop\CapstoneProject\current\Project 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E8ECAC-246A-4008-B200-467BF0BF4F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24130792-C00E-4FAB-AC95-9170BA3C0D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30672" yWindow="312" windowWidth="12204" windowHeight="12048" xr2:uid="{B8910AD0-7EBF-4162-90A5-B872918A053D}"/>
+    <workbookView xWindow="180" yWindow="1530" windowWidth="15375" windowHeight="7875" xr2:uid="{B8910AD0-7EBF-4162-90A5-B872918A053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet - 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="361">
   <si>
     <t>DLastName</t>
   </si>
@@ -1048,6 +1048,66 @@
   </si>
   <si>
     <t>C2C</t>
+  </si>
+  <si>
+    <t>Buchanan</t>
+  </si>
+  <si>
+    <t>Shelly</t>
+  </si>
+  <si>
+    <t>Shelly K. Buchanan</t>
+  </si>
+  <si>
+    <t>Washington University Physician Network</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>2022-AC03429</t>
+  </si>
+  <si>
+    <t>3375223</t>
+  </si>
+  <si>
+    <t>10:30 AM</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Danielle P. Coleman</t>
+  </si>
+  <si>
+    <t>2022-AC03533</t>
+  </si>
+  <si>
+    <t>3375504</t>
+  </si>
+  <si>
+    <t>Ewing</t>
+  </si>
+  <si>
+    <t>Jamina</t>
+  </si>
+  <si>
+    <t>Jamina J. Ewing</t>
+  </si>
+  <si>
+    <t>Southfield Partnership, L.P. d/b/a Southfield Apartments</t>
+  </si>
+  <si>
+    <t>2022-AC01514</t>
+  </si>
+  <si>
+    <t>3375941</t>
   </si>
 </sst>
 </file>
@@ -1408,37 +1468,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0152281-155D-45F5-9881-09A4D5C82F1F}">
-  <dimension ref="A1:W52"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1577,7 +1639,7 @@
         <v>2658.3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1642,7 +1704,7 @@
         <v>4764.01</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1707,7 +1769,7 @@
         <v>2216.2399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1772,7 +1834,7 @@
         <v>-704</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
@@ -1840,7 +1902,7 @@
         <v>1912.78</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
@@ -1908,7 +1970,7 @@
         <v>2572.2199999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
@@ -1976,7 +2038,7 @@
         <v>1608.64</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
@@ -2041,7 +2103,7 @@
         <v>3731.47</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>97</v>
       </c>
@@ -2106,7 +2168,7 @@
         <v>1338.42</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
@@ -2171,7 +2233,7 @@
         <v>1004.9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2236,7 +2298,7 @@
         <v>1511.4</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>114</v>
       </c>
@@ -2304,7 +2366,7 @@
         <v>2261.41</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>119</v>
       </c>
@@ -2369,7 +2431,7 @@
         <v>1051.28</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>123</v>
       </c>
@@ -2434,7 +2496,7 @@
         <v>614.67999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>128</v>
       </c>
@@ -2499,7 +2561,7 @@
         <v>1573.85</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>134</v>
       </c>
@@ -2567,7 +2629,7 @@
         <v>5531.62</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>145</v>
       </c>
@@ -2635,7 +2697,7 @@
         <v>2987.8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>151</v>
       </c>
@@ -2703,7 +2765,7 @@
         <v>1606.15</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>159</v>
       </c>
@@ -2768,7 +2830,7 @@
         <v>513.99</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>166</v>
       </c>
@@ -2836,7 +2898,7 @@
         <v>4632.53</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>172</v>
       </c>
@@ -2904,7 +2966,7 @@
         <v>3645.7</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>178</v>
       </c>
@@ -2972,7 +3034,7 @@
         <v>6406.79</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>183</v>
       </c>
@@ -3037,7 +3099,7 @@
         <v>2366.4499999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>188</v>
       </c>
@@ -3105,7 +3167,7 @@
         <v>3224.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>194</v>
       </c>
@@ -3170,7 +3232,7 @@
         <v>4079.07</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>131</v>
       </c>
@@ -3238,7 +3300,7 @@
         <v>4473.7700000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>203</v>
       </c>
@@ -3303,7 +3365,7 @@
         <v>4742.6000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>208</v>
       </c>
@@ -3368,7 +3430,7 @@
         <v>2449.14</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>215</v>
       </c>
@@ -3433,7 +3495,7 @@
         <v>1457.88</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>220</v>
       </c>
@@ -3498,7 +3560,7 @@
         <v>1016.19</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>225</v>
       </c>
@@ -3563,7 +3625,7 @@
         <v>1441.55</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>230</v>
       </c>
@@ -3631,7 +3693,7 @@
         <v>2827.28</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>235</v>
       </c>
@@ -3696,7 +3758,7 @@
         <v>1624.76</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>240</v>
       </c>
@@ -3764,7 +3826,7 @@
         <v>2819.84</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>246</v>
       </c>
@@ -3829,7 +3891,7 @@
         <v>2472.5</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>251</v>
       </c>
@@ -3897,7 +3959,7 @@
         <v>5451.71</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>256</v>
       </c>
@@ -3962,7 +4024,7 @@
         <v>3475.55</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>261</v>
       </c>
@@ -4027,7 +4089,7 @@
         <v>1103.57</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>266</v>
       </c>
@@ -4092,7 +4154,7 @@
         <v>3308.25</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>271</v>
       </c>
@@ -4157,7 +4219,7 @@
         <v>2574.58</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>278</v>
       </c>
@@ -4222,7 +4284,7 @@
         <v>789.5</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>286</v>
       </c>
@@ -4290,7 +4352,7 @@
         <v>1765.9</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>293</v>
       </c>
@@ -4358,7 +4420,7 @@
         <v>1550.22</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>299</v>
       </c>
@@ -4423,7 +4485,7 @@
         <v>590.13</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>303</v>
       </c>
@@ -4491,7 +4553,7 @@
         <v>596.5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>309</v>
       </c>
@@ -4556,7 +4618,7 @@
         <v>370.32</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>314</v>
       </c>
@@ -4624,7 +4686,7 @@
         <v>1401.83</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>320</v>
       </c>
@@ -4692,7 +4754,7 @@
         <v>1248.92</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>325</v>
       </c>
@@ -4757,7 +4819,7 @@
         <v>1154.5</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -4822,7 +4884,7 @@
         <v>6711.36</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>335</v>
       </c>
@@ -4888,6 +4950,213 @@
       </c>
       <c r="W52" s="6">
         <v>22811.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M53" s="4">
+        <v>44209</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" s="4">
+        <v>44198</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="R53" s="4">
+        <v>44107</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W53" s="6">
+        <v>859.64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M54" s="4">
+        <v>44209</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="4">
+        <v>44108</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W54" s="6">
+        <v>754.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="M55" s="4">
+        <v>44209</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="4">
+        <v>44175</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W55" s="6">
+        <v>1813.45</v>
       </c>
     </row>
   </sheetData>
